--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,36 @@
     <t>hell</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
@@ -118,7 +118,7 @@
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
+    <t>join</t>
   </si>
   <si>
     <t>happy</t>
@@ -130,28 +130,25 @@
     <t>strong</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
@@ -163,102 +160,108 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>save</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -742,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -792,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.868421052631579</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8493150684931506</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9375</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,16 +1119,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.9216710182767625</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L11">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1192,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.9069767441860465</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5396825396825397</v>
+        <v>0.5096899224806202</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.52</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8962264150943396</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4651162790697674</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C16">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.392156862745098</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3898305084745763</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>0.8888888888888888</v>
@@ -1492,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2545454545454545</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>0.8875</v>
@@ -1538,41 +1544,17 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1866666666666667</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>61</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.8828125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,45 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>127</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.851063829787234</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.84</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1738,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1764,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.8235294117647058</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1790,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.8148148148148148</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1816,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1842,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1868,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.7529411764705882</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L31">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1894,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1920,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.7428571428571429</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1946,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1972,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.7405857740585774</v>
+        <v>0.75</v>
       </c>
       <c r="L35">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1998,12 +1956,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K36">
         <v>0.7391304347826086</v>
@@ -2029,16 +1987,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.7368421052631579</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2050,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.7288135593220338</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L38">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="M38">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2076,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K39">
         <v>0.7272727272727273</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2102,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2133,16 +2091,16 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.7021276595744681</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L41">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2154,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.6923076923076923</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2180,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2206,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.6629213483146067</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L44">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2232,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.6428571428571429</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2258,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.6363636363636364</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2284,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.6296296296296297</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2315,16 +2273,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2336,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2362,21 +2320,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2388,21 +2346,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.5714285714285714</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2414,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.5416666666666666</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2445,16 +2403,16 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2466,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K54">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2492,21 +2450,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>0.4931506849315068</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2518,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K56">
-        <v>0.4871794871794872</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2544,21 +2502,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K57">
-        <v>0.4666666666666667</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2570,33 +2528,137 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L59">
+        <v>32</v>
+      </c>
+      <c r="M59">
+        <v>32</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K58">
-        <v>0.2372881355932203</v>
-      </c>
-      <c r="L58">
+      <c r="K60">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="L62">
         <v>14</v>
       </c>
-      <c r="M58">
+      <c r="M62">
         <v>14</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>45</v>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
